--- a/Leaderboards/02.xlsx
+++ b/Leaderboards/02.xlsx
@@ -1,90 +1,328 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSE LAB\Desktop\lab\Vjudge_Rank_System\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maruf\vs_file\Team_Formation_From_Vjudge_Standings\Leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C1139-7065-4E26-84B9-8A50B1DAB022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>A
+6 / 11</t>
+  </si>
+  <si>
+    <t>B
+15 / 19</t>
+  </si>
+  <si>
+    <t>C
+15 / 32</t>
+  </si>
+  <si>
+    <t>D
+0 / 3</t>
+  </si>
+  <si>
+    <t>E
+0 / 0</t>
+  </si>
+  <si>
+    <t>F
+0 / 0</t>
+  </si>
   <si>
     <t>sf61561(Syed Fahad Mahmud)</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1212:01:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:32:32
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:23:27
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:05:13
+ </t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>y_this_kolaveri(SAIF)</t>
   </si>
   <si>
+    <t>1282:08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:42:57
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:20:31
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:05:08
+ </t>
+  </si>
+  <si>
     <t>YouDOntKNowWHo(Nabeel Ahsan)</t>
   </si>
   <si>
+    <t>1622:42:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:53:33
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:26:16
+ </t>
+  </si>
+  <si>
+    <t>0:02:37
+(-1)</t>
+  </si>
+  <si>
+    <t>(-1)</t>
+  </si>
+  <si>
     <t>Tamjid_Hossen(Tamjid)</t>
   </si>
   <si>
+    <t>2123:32:48</t>
+  </si>
+  <si>
+    <t>2:24:40
+(-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:26:05
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:02:03
+ </t>
+  </si>
+  <si>
     <t>shazidmashrafi(Shazid)</t>
   </si>
   <si>
+    <t>2414:01:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:04:04
+ </t>
+  </si>
+  <si>
+    <t>0:33:36
+(-2)</t>
+  </si>
+  <si>
+    <t>0:04:01
+(-2)</t>
+  </si>
+  <si>
+    <t>(-2)</t>
+  </si>
+  <si>
     <t>Md_Saurob_bhuyan(Noob)</t>
   </si>
   <si>
+    <t>2584:18:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:49:45
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:52:42
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:35:34
+ </t>
+  </si>
+  <si>
     <t>Marufhussain(maruf)</t>
   </si>
   <si>
+    <t>180:18:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:15:59
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:02:29
+ </t>
+  </si>
+  <si>
     <t>Akash_khan</t>
   </si>
   <si>
+    <t>420:42:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:28:07
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:14:13
+ </t>
+  </si>
+  <si>
     <t>AL_AMIN_17(Al Amin)</t>
   </si>
   <si>
+    <t>490:49:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:24:54
+ </t>
+  </si>
+  <si>
+    <t>0:04:27
+(-1)</t>
+  </si>
+  <si>
     <t>Aniksamiul(Anik)</t>
   </si>
   <si>
+    <t>510:51:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:31:11
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:20:18
+ </t>
+  </si>
+  <si>
     <t>farhanshadiq(Farhan)</t>
   </si>
   <si>
+    <t>540:54:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:39:17
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:15:29
+ </t>
+  </si>
+  <si>
     <t>rakin_ahsan(Rakin)</t>
   </si>
   <si>
+    <t>1282:08:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:12:43
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:55:18
+ </t>
+  </si>
+  <si>
     <t>Apon_Chowdhury(Apon)</t>
   </si>
   <si>
+    <t>1552:35:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:55:01
+ </t>
+  </si>
+  <si>
+    <t>0:40:57
+(-3)</t>
+  </si>
+  <si>
     <t>SadmanIshtiak(Sadman)</t>
   </si>
   <si>
+    <t>1642:44:55</t>
+  </si>
+  <si>
+    <t>0:23:52
+(-1)</t>
+  </si>
+  <si>
+    <t>0:21:03
+(-5)</t>
+  </si>
+  <si>
     <t>Noornabi1770(Noor)</t>
   </si>
   <si>
+    <t>2063:26:54</t>
+  </si>
+  <si>
+    <t>1:19:39
+(-1)</t>
+  </si>
+  <si>
+    <t>0:27:15
+(-4)</t>
+  </si>
+  <si>
     <t>_Mohiul007(Rabby)</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Moda</t>
+    <t xml:space="preserve">This is a sample exported input.xlsx of a vjudge contest. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -114,14 +352,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,269 +692,572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:D18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B16" r:id="rId3"/>
-    <hyperlink ref="B17" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B3" r:id="rId6"/>
-    <hyperlink ref="B4" r:id="rId7"/>
-    <hyperlink ref="B5" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="B7" r:id="rId10"/>
-    <hyperlink ref="B8" r:id="rId11"/>
-    <hyperlink ref="B9" r:id="rId12"/>
-    <hyperlink ref="B10" r:id="rId13"/>
-    <hyperlink ref="B11" r:id="rId14"/>
-    <hyperlink ref="B12" r:id="rId15"/>
-    <hyperlink ref="B13" r:id="rId16"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:B13 C2:D13 B2" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:J4 A1 C1:J1 B12:J12 B2:J2 B5:J5 B6:J6 B7:J7 B8:J8 B9:J9 B10:J10 B11:J11 B3:J3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Leaderboards/02.xlsx
+++ b/Leaderboards/02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maruf\vs_file\Team_Formation_From_Vjudge_Standings\Leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C1139-7065-4E26-84B9-8A50B1DAB022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954EE9F8-B114-4660-AD56-7DC059251A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t>Rank</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a sample exported input.xlsx of a vjudge contest. </t>
   </si>
 </sst>
 </file>
@@ -693,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1228,11 +1225,6 @@
       </c>
       <c r="I17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
